--- a/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i47,75_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i47,75_Fremdlüfter.xlsx
@@ -1,45 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_00E8A1EEAF2D255D7C9E61A8126960EC3E9E8EB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
+  <si>
+    <t>Produktinformationen</t>
+  </si>
+  <si>
+    <t>Prozessinformationen</t>
+  </si>
+  <si>
+    <t>Ressourceninformationen</t>
+  </si>
+  <si>
+    <t>Benennung:</t>
+  </si>
+  <si>
+    <t>FU114SA2</t>
+  </si>
+  <si>
+    <t>NR.:</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menge </t>
+  </si>
+  <si>
+    <t>[ME]</t>
+  </si>
+  <si>
+    <t>Bennung</t>
+  </si>
+  <si>
+    <t>Sachnummer</t>
+  </si>
+  <si>
+    <t>Formenschlüssel</t>
+  </si>
   <si>
     <t>Sequenz</t>
   </si>
   <si>
+    <t>Variante</t>
+  </si>
+  <si>
     <t>Bildquelle</t>
   </si>
   <si>
+    <t>Videoquelle</t>
+  </si>
+  <si>
     <t>Bildschirmtext</t>
   </si>
   <si>
-    <t>Synchronmotor entnehmen</t>
-  </si>
-  <si>
-    <t>Asynchronmotor entnehmen</t>
-  </si>
-  <si>
-    <t>Der zweite Montageschritt wurde erfolgreich durchgeführt
-Bitte Bauteil zum nächsten Tisch mitnehmen</t>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Pick-By-Light</t>
+  </si>
+  <si>
+    <t>Torque min (Nm)</t>
+  </si>
+  <si>
+    <t>Name in CVI</t>
+  </si>
+  <si>
+    <t>IP-Adresse</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>0_g2.jpg</t>
   </si>
   <si>
     <t>Hallo Werker, willkommen zur Montagestation 2
 Scanne zum Starten bitte den QR-Code auf dem Produktionsauftrag</t>
   </si>
   <si>
-    <t>Außensechskant-Bit entnehmen</t>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Desoutter Micro E/A-Box
+Tisch 3 (rechte Box)</t>
+  </si>
+  <si>
+    <t>192.168.125.23</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>BG Asynchronmotor 1</t>
+  </si>
+  <si>
+    <t>BG 021</t>
+  </si>
+  <si>
+    <t>GM 3. Motor: A</t>
+  </si>
+  <si>
+    <t>1a_g2.jpg</t>
+  </si>
+  <si>
+    <t>Asynchronmotor entnehmen</t>
+  </si>
+  <si>
+    <t>Desoutter Micro E/A-Box\ Tisch 2 (mittlere Box)</t>
+  </si>
+  <si>
+    <t>192.168.125.22</t>
+  </si>
+  <si>
+    <t>BG ASynchrononmotor DT40S</t>
+  </si>
+  <si>
+    <t>BG 033</t>
+  </si>
+  <si>
+    <t>Asynchronmotor  DT40S</t>
+  </si>
+  <si>
+    <t>BT 011</t>
+  </si>
+  <si>
+    <t>GM 3. Motor: S</t>
+  </si>
+  <si>
+    <t>1b_g2.jpg</t>
+  </si>
+  <si>
+    <t>Synchronmotor entnehmen</t>
+  </si>
+  <si>
+    <t>BG Getriebe Flanschgehäuse 8</t>
+  </si>
+  <si>
+    <t>BG 031</t>
+  </si>
+  <si>
+    <t>GM 4. Motor + Gehäuse: AFL</t>
+  </si>
+  <si>
+    <t>AS auf FL 
+ausrichten.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">1) Asynchronmotor in die Vorrichtung setzen
@@ -48,69 +181,35 @@
 </t>
   </si>
   <si>
+    <t>Desoutter Micro E/A-Box 
+Tisch 2 (mittlere Box)</t>
+  </si>
+  <si>
+    <t>Sechskantschrauben
+M4x10</t>
+  </si>
+  <si>
+    <t>S 003</t>
+  </si>
+  <si>
+    <t>GM 4. Motor + Gehäuse: AFU</t>
+  </si>
+  <si>
+    <t>AS auf FU 
+ausrichten.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) Asynchronmotor in die Vorrichtung setzen
 2) Fußgehäuse auf Asynchronmotor ausrichten  
 3) 2 Sechskantschrauben M4x10 entnehmen
 </t>
   </si>
   <si>
-    <t>1) Synchronmotor in die Vorrichtung setzen
-2) Fußgehäuse auf Synchronmotor ausrichten 
-3) 2 Sechskantschrauben M4x10 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben rechts und links einfädeln
-2) Maulschlüssel entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben mit Maulschlüssel festziehen
-2) Maulschlüssel zurücklegen</t>
-  </si>
-  <si>
-    <t>1) Bauteil auf der Vorrichtung positionieren
-2) 6 Zylinderkopfschrauben M4x6 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben einfädeln 
-2) Winkelschrauber links aus der Halterung nehmen</t>
-  </si>
-  <si>
-    <t>1) Außensechskant-Bit vom Winkelschrauber lösen 
-2) Innensechskant-Bit in Winkelschrauber einsetzen
-3) Außensechskant-Bit zurücklegen</t>
-  </si>
-  <si>
-    <t>1) Winkelschrauber zurücklegen
-2) Klemmkasten entnehmen</t>
-  </si>
-  <si>
-    <t>1) Klemmkasten auf dem Motor positionieren (Orientierung beachten)
-2) 4 Sechskantschrauben M4x25 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben einfädeln
-2) Winkelschrauber links aus der Halterung nehmen</t>
-  </si>
-  <si>
-    <t>1) Innensechskant-Bit vom Winkelschrauber lösen
-2) Außensechskant-Bit in Winkelschrauber einsetzen
-3) Innensechskant-Bit zurücklegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Winkelschrauber zurücklegen
-2) Scheibenbremse entnehmen </t>
-  </si>
-  <si>
-    <t>1) Winkelschrauber zurücklegen
-2) Fremdlüfter entnehmen</t>
-  </si>
-  <si>
-    <t>1) Scheibenbremse per Hand mit dem Asynchronmotor verschrauben
-2) Zum Fortfahren mit gelbem Taster bestätigen</t>
-  </si>
-  <si>
-    <t>1) Fremdlüfter per Hand mit dem Asynchronmotor verschrauben
-2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+    <t>GM 4. Motor + Gehäuse: SFL</t>
+  </si>
+  <si>
+    <t>S auf FL
+ausrichten.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">1) Synchronmotor in die Vorrichtung setzen
@@ -119,117 +218,82 @@
 </t>
   </si>
   <si>
+    <t>GM 4. Motor + Gehäuse: SFU</t>
+  </si>
+  <si>
+    <t>S auf FU 
+ausrichten.mp4</t>
+  </si>
+  <si>
+    <t>1) Synchronmotor in die Vorrichtung setzen
+2) Fußgehäuse auf Synchronmotor ausrichten 
+3) 2 Sechskantschrauben M4x10 entnehmen</t>
+  </si>
+  <si>
+    <t>6a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben rechts und links einfädeln
+2) Maulschlüssel entnehmen</t>
+  </si>
+  <si>
+    <t>6b_g2.jpg</t>
+  </si>
+  <si>
+    <t>7a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben mit Maulschlüssel festziehen
+2) Maulschlüssel zurücklegen</t>
+  </si>
+  <si>
+    <t>7b_g2.jpg</t>
+  </si>
+  <si>
+    <t>7c_g2.jpg</t>
+  </si>
+  <si>
+    <t>7d_g2.jpg</t>
+  </si>
+  <si>
+    <t>8a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Bauteil auf der Vorrichtung positionieren
+2) 6 Zylinderkopfschrauben M4x6 entnehmen</t>
+  </si>
+  <si>
+    <t>8b_g2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zylinderkopfschrauben M4x6 </t>
+  </si>
+  <si>
+    <t>S 001</t>
+  </si>
+  <si>
+    <t>9_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben einfädeln 
+2) Winkelschrauber links aus der Halterung nehmen</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Desoutter Stabschrauber
+Station 2</t>
+  </si>
+  <si>
+    <t>192.168.125.19</t>
+  </si>
+  <si>
+    <t>10_g2.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) Innensechskant-Bit entnehmen
 </t>
-  </si>
-  <si>
-    <t>1) Zylinderkopfschrauben an angezeigten Positionen mit Winkelschrauber festziehen</t>
-  </si>
-  <si>
-    <t>1) An angezeigten Positionen Sechskantschrauben mit Winkelschrauber festziehen</t>
-  </si>
-  <si>
-    <t>1a_g2.jpg</t>
-  </si>
-  <si>
-    <t>1b_g2.jpg</t>
-  </si>
-  <si>
-    <t>6a_g2.jpg</t>
-  </si>
-  <si>
-    <t>6b_g2.jpg</t>
-  </si>
-  <si>
-    <t>7a_g2.jpg</t>
-  </si>
-  <si>
-    <t>7b_g2.jpg</t>
-  </si>
-  <si>
-    <t>7c_g2.jpg</t>
-  </si>
-  <si>
-    <t>7d_g2.jpg</t>
-  </si>
-  <si>
-    <t>8a_g2.jpg</t>
-  </si>
-  <si>
-    <t>8b_g2.jpg</t>
-  </si>
-  <si>
-    <t>9_g2.jpg</t>
-  </si>
-  <si>
-    <t>10_g2.jpg</t>
-  </si>
-  <si>
-    <t>14a_g2.jpg</t>
-  </si>
-  <si>
-    <t>14b_g2.jpg</t>
-  </si>
-  <si>
-    <t>15_g2.jpg</t>
-  </si>
-  <si>
-    <t>16_g2.jpg</t>
-  </si>
-  <si>
-    <t>17_g2.jpg</t>
-  </si>
-  <si>
-    <t>18_g2.jpg</t>
-  </si>
-  <si>
-    <t>19a_g2.jpg</t>
-  </si>
-  <si>
-    <t>19b_g2.jpg</t>
-  </si>
-  <si>
-    <t>20a_g2.jpg</t>
-  </si>
-  <si>
-    <t>20b_g2.jpg</t>
-  </si>
-  <si>
-    <t>20c_g2.jpg</t>
-  </si>
-  <si>
-    <t>20d_g2.jpg</t>
-  </si>
-  <si>
-    <t>0_g2.jpg</t>
-  </si>
-  <si>
-    <t>12_g2.jpg</t>
-  </si>
-  <si>
-    <t>13_g2.jpg</t>
-  </si>
-  <si>
-    <t>100_g2.png</t>
-  </si>
-  <si>
-    <t>Videoquelle</t>
-  </si>
-  <si>
-    <t>AS auf FL 
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>AS auf FU 
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>S auf FL
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>S auf FU 
-ausrichten.mp4</t>
   </si>
   <si>
     <t>Wechsel 
@@ -237,200 +301,148 @@
 Winkelschrauber.mp4</t>
   </si>
   <si>
-    <t>Benennung:</t>
-  </si>
-  <si>
-    <t>FU114SA2</t>
-  </si>
-  <si>
-    <t>NR.:</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Stufe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menge </t>
-  </si>
-  <si>
-    <t>[ME]</t>
-  </si>
-  <si>
-    <t>Bennung</t>
-  </si>
-  <si>
-    <t>Sachnummer</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Sechskantschrauben
-M4x10</t>
-  </si>
-  <si>
-    <t>S 003</t>
-  </si>
-  <si>
-    <t>Variante</t>
-  </si>
-  <si>
-    <t>GM 3. Motor: A</t>
-  </si>
-  <si>
-    <t>GM 3. Motor: S</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: AFL</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: AFU</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: SFL</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: SFU</t>
+    <t>1) Außensechskant-Bit vom Winkelschrauber lösen 
+2) Innensechskant-Bit in Winkelschrauber einsetzen
+3) Außensechskant-Bit zurücklegen</t>
+  </si>
+  <si>
+    <t>12_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Zylinderkopfschrauben an angezeigten Positionen mit Winkelschrauber festziehen</t>
+  </si>
+  <si>
+    <t>13_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Winkelschrauber zurücklegen
+2) Klemmkasten entnehmen</t>
+  </si>
+  <si>
+    <t>BG Klemmkasten</t>
+  </si>
+  <si>
+    <t>Klemmkasten</t>
+  </si>
+  <si>
+    <t>BT 014</t>
+  </si>
+  <si>
+    <t>14a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Klemmkasten auf dem Motor positionieren (Orientierung beachten)
+2) 4 Sechskantschrauben M4x25 entnehmen</t>
+  </si>
+  <si>
+    <t>14b_g2.jpg</t>
+  </si>
+  <si>
+    <t>BG 020</t>
+  </si>
+  <si>
+    <t>Sechskantschrauben M4x25</t>
+  </si>
+  <si>
+    <t>S 002</t>
+  </si>
+  <si>
+    <t>15_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben einfädeln
+2) Winkelschrauber links aus der Halterung nehmen</t>
+  </si>
+  <si>
+    <t>16_g2.jpg</t>
+  </si>
+  <si>
+    <t>Außensechskant-Bit entnehmen</t>
+  </si>
+  <si>
+    <t>17_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Innensechskant-Bit vom Winkelschrauber lösen
+2) Außensechskant-Bit in Winkelschrauber einsetzen
+3) Innensechskant-Bit zurücklegen</t>
+  </si>
+  <si>
+    <t>18_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) An angezeigten Positionen Sechskantschrauben mit Winkelschrauber festziehen</t>
   </si>
   <si>
     <t>GM 5. Zusatz: Scheibenbremse</t>
   </si>
   <si>
+    <t>19a_g2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Winkelschrauber zurücklegen
+2) Scheibenbremse entnehmen </t>
+  </si>
+  <si>
     <t>GM 5. Zusatz: Fremdlüfter</t>
   </si>
   <si>
+    <t>19b_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Winkelschrauber zurücklegen
+2) Fremdlüfter entnehmen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFUS</t>
   </si>
   <si>
+    <t>20a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Scheibenbremse per Hand mit dem Asynchronmotor verschrauben
+2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFUF</t>
   </si>
   <si>
+    <t>20b_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Fremdlüfter per Hand mit dem Asynchronmotor verschrauben
+2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFLS</t>
   </si>
   <si>
+    <t>20c_g2.jpg</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFLF</t>
   </si>
   <si>
-    <t>S 001</t>
-  </si>
-  <si>
-    <t>BG Klemmkasten</t>
-  </si>
-  <si>
-    <t>Klemmkasten</t>
-  </si>
-  <si>
-    <t>Sechskantschrauben M4x25</t>
+    <t>20d_g2.jpg</t>
   </si>
   <si>
     <t>Fremdlüfter</t>
   </si>
   <si>
-    <t>BG ASynchrononmotor DT40S</t>
-  </si>
-  <si>
-    <t>Asynchronmotor  DT40S</t>
-  </si>
-  <si>
-    <t>BG 033</t>
-  </si>
-  <si>
-    <t>BT 011</t>
-  </si>
-  <si>
-    <t>BG 021</t>
-  </si>
-  <si>
-    <t>BG Asynchronmotor 1</t>
-  </si>
-  <si>
-    <t>BG 020</t>
-  </si>
-  <si>
-    <t>BT 014</t>
-  </si>
-  <si>
-    <t>S 002</t>
-  </si>
-  <si>
     <t>BT 016</t>
   </si>
   <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>192.168.125.23</t>
-  </si>
-  <si>
-    <t>Pick-By-Light</t>
-  </si>
-  <si>
-    <t>192.168.125.22</t>
-  </si>
-  <si>
-    <t>Desoutter Micro E/A-Box\ Tisch 2 (mittlere Box)</t>
-  </si>
-  <si>
-    <t>Desoutter Micro E/A-Box
-Tisch 3 (rechte Box)</t>
-  </si>
-  <si>
-    <t>Desoutter Micro E/A-Box 
-Tisch 2 (mittlere Box)</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>192.168.125.19</t>
-  </si>
-  <si>
-    <t>Desoutter Stabschrauber
-Station 2</t>
-  </si>
-  <si>
-    <t>Asset Type</t>
-  </si>
-  <si>
-    <t>Name in CVI</t>
-  </si>
-  <si>
-    <t>IP-Adresse</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Torque min (Nm)</t>
-  </si>
-  <si>
-    <t>BG Getriebe Flanschgehäuse 8</t>
-  </si>
-  <si>
-    <t>BG 031</t>
-  </si>
-  <si>
-    <t>Formenschlüssel</t>
-  </si>
-  <si>
-    <t>Produktinformationen</t>
-  </si>
-  <si>
-    <t>Prozessinformationen</t>
-  </si>
-  <si>
-    <t>Ressourceninformationen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zylinderkopfschrauben M4x6 </t>
+    <t>100_g2.png</t>
+  </si>
+  <si>
+    <t>Der zweite Montageschritt wurde erfolgreich durchgeführt
+Bitte Bauteil zum nächsten Tisch mitnehmen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -481,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -865,11 +877,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -967,9 +1029,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -977,9 +1036,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1004,10 +1060,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,7 +1143,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1357,80 +1449,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79:G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="38.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="45.26953125" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="A2" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1447,67 +1539,67 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="28" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="46" customHeight="1" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="45.95" customHeight="1" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -1519,24 +1611,24 @@
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="48" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="49" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="N4" s="58"/>
       <c r="O4" s="58"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="58"/>
       <c r="R4" s="59" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="S4" s="58" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="T4" s="60"/>
     </row>
@@ -1551,30 +1643,30 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>31</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="41">
         <v>1</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5" s="50"/>
       <c r="L5" s="42" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N5" s="47">
         <v>4</v>
@@ -1583,10 +1675,10 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
       <c r="R5" s="61" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T5" s="62">
         <v>1</v>
@@ -1603,15 +1695,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="68"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="50"/>
@@ -1630,20 +1722,22 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="97">
+        <v>3</v>
+      </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="67">
+        <v>29</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="66">
         <v>23355</v>
       </c>
       <c r="H7" s="41"/>
@@ -1671,14 +1765,14 @@
         <v>1</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="42" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="47"/>
@@ -1700,30 +1794,30 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="41">
         <v>2</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J9" s="41"/>
       <c r="K9" s="51" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N9" s="18">
         <v>8</v>
@@ -1732,10 +1826,10 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T9" s="64">
         <v>1</v>
@@ -1752,13 +1846,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="41"/>
@@ -1786,15 +1880,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="68"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
@@ -1810,23 +1904,25 @@
       <c r="T11" s="42"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="70">
-        <v>1</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72">
-        <v>1</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="74">
+      <c r="A12" s="69">
+        <v>1</v>
+      </c>
+      <c r="B12" s="98">
+        <v>3</v>
+      </c>
+      <c r="C12" s="70">
+        <v>1</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="72">
         <v>23355</v>
       </c>
       <c r="H12" s="41"/>
@@ -1843,22 +1939,24 @@
       <c r="S12" s="41"/>
       <c r="T12" s="42"/>
     </row>
-    <row r="13" spans="1:20" ht="29.5" thickBot="1">
+    <row r="13" spans="1:20" ht="29.45" thickBot="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="99">
+        <v>3</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="14">
         <v>14111</v>
@@ -1877,7 +1975,7 @@
       <c r="S13" s="41"/>
       <c r="T13" s="42"/>
     </row>
-    <row r="14" spans="1:20" ht="58">
+    <row r="14" spans="1:20" ht="57.95">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -1888,14 +1986,14 @@
         <v>3</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="51" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="41"/>
@@ -1906,7 +2004,7 @@
       <c r="S14" s="41"/>
       <c r="T14" s="42"/>
     </row>
-    <row r="15" spans="1:20" ht="58">
+    <row r="15" spans="1:20" ht="57.95">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -1917,14 +2015,14 @@
         <v>4</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="41"/>
@@ -1946,14 +2044,14 @@
         <v>5</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>10</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="41"/>
@@ -1964,7 +2062,7 @@
       <c r="S16" s="41"/>
       <c r="T16" s="42"/>
     </row>
-    <row r="17" spans="1:20" ht="29">
+    <row r="17" spans="1:20" ht="29.1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -1975,14 +2073,14 @@
         <v>6</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K17" s="50"/>
       <c r="L17" s="52" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
@@ -1993,7 +2091,7 @@
       <c r="S17" s="41"/>
       <c r="T17" s="42"/>
     </row>
-    <row r="18" spans="1:20" ht="29">
+    <row r="18" spans="1:20" ht="29.1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -2004,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K18" s="50"/>
       <c r="L18" s="52" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
@@ -2117,30 +2215,30 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="41">
         <v>7</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K23" s="50"/>
       <c r="L23" s="52" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N23" s="18">
         <v>11</v>
@@ -2149,10 +2247,10 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T23" s="64">
         <v>1</v>
@@ -2169,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="41"/>
@@ -2203,15 +2301,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="68"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="50"/>
@@ -2227,23 +2325,25 @@
       <c r="T25" s="42"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="70">
-        <v>1</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72">
-        <v>1</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="74">
+      <c r="A26" s="69">
+        <v>1</v>
+      </c>
+      <c r="B26" s="98">
+        <v>3</v>
+      </c>
+      <c r="C26" s="70">
+        <v>1</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="72">
         <v>23355</v>
       </c>
       <c r="H26" s="41"/>
@@ -2260,22 +2360,24 @@
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
     </row>
-    <row r="27" spans="1:20" ht="29.5" thickBot="1">
+    <row r="27" spans="1:20" ht="29.45" thickBot="1">
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="99">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="G27" s="14">
         <v>14111</v>
@@ -2315,7 +2417,7 @@
       <c r="S28" s="41"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" ht="29">
+    <row r="29" spans="1:20" ht="29.1">
       <c r="A29" s="40"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -2326,14 +2428,14 @@
         <v>7</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="K29" s="50"/>
       <c r="L29" s="52" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
@@ -2344,7 +2446,7 @@
       <c r="S29" s="41"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" ht="29">
+    <row r="30" spans="1:20" ht="29.1">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -2355,14 +2457,14 @@
         <v>7</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="52" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="41"/>
@@ -2373,26 +2475,26 @@
       <c r="S30" s="41"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" ht="29">
+    <row r="31" spans="1:20" ht="29.1">
       <c r="A31" s="43"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="41">
         <v>7</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K31" s="50"/>
       <c r="L31" s="52" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="41"/>
@@ -2403,7 +2505,7 @@
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" ht="29.5" thickBot="1">
+    <row r="32" spans="1:20" ht="29.45" thickBot="1">
       <c r="A32" s="40"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -2414,14 +2516,14 @@
         <v>8</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="52" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M32" s="40"/>
       <c r="N32" s="41"/>
@@ -2443,30 +2545,30 @@
         <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="41">
         <v>8</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="K33" s="50"/>
       <c r="L33" s="53" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N33" s="41">
         <v>7</v>
@@ -2475,10 +2577,10 @@
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
       <c r="R33" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T33" s="64">
         <v>1</v>
@@ -2495,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F34" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="41"/>
@@ -2518,26 +2620,26 @@
       <c r="S34" s="41"/>
       <c r="T34" s="42"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
+      <c r="A35" s="101">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="102">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="C35" s="103">
+        <v>1</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="106"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="50"/>
@@ -2553,23 +2655,25 @@
       <c r="T35" s="42"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="70">
-        <v>1</v>
-      </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72">
-        <v>1</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="95">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="107">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="110">
         <v>23355</v>
       </c>
       <c r="H36" s="41"/>
@@ -2587,15 +2691,23 @@
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="93" t="s">
-        <v>87</v>
+      <c r="A37" s="32">
+        <v>2</v>
+      </c>
+      <c r="B37" s="100">
+        <v>3</v>
+      </c>
+      <c r="C37" s="33">
+        <v>6</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="G37" s="37">
         <v>17132</v>
@@ -2635,7 +2747,7 @@
       <c r="S38" s="41"/>
       <c r="T38" s="42"/>
     </row>
-    <row r="39" spans="1:20" ht="58">
+    <row r="39" spans="1:20" ht="57.95">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -2646,40 +2758,40 @@
         <v>1</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="41">
         <v>9</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="52" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M39" s="43" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="63" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="T39" s="42"/>
     </row>
@@ -2694,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="41"/>
@@ -2728,15 +2840,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="68"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="50"/>
@@ -2752,23 +2864,25 @@
       <c r="T41" s="42"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="70">
-        <v>1</v>
-      </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72">
-        <v>1</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="74">
+      <c r="A42" s="69">
+        <v>1</v>
+      </c>
+      <c r="B42" s="98">
+        <v>3</v>
+      </c>
+      <c r="C42" s="70">
+        <v>1</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="72">
         <v>23355</v>
       </c>
       <c r="H42" s="41"/>
@@ -2786,15 +2900,23 @@
       <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="93" t="s">
-        <v>87</v>
+      <c r="A43" s="32">
+        <v>2</v>
+      </c>
+      <c r="B43" s="100">
+        <v>3</v>
+      </c>
+      <c r="C43" s="33">
+        <v>6</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="G43" s="37">
         <v>17132</v>
@@ -2834,7 +2956,7 @@
       <c r="S44" s="41"/>
       <c r="T44" s="42"/>
     </row>
-    <row r="45" spans="1:20" ht="29">
+    <row r="45" spans="1:20" ht="29.1">
       <c r="A45" s="40"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -2845,14 +2967,14 @@
         <v>10</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J45" s="50" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K45" s="50"/>
       <c r="L45" s="53" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="41"/>
@@ -2863,7 +2985,7 @@
       <c r="S45" s="41"/>
       <c r="T45" s="42"/>
     </row>
-    <row r="46" spans="1:20" ht="44" thickBot="1">
+    <row r="46" spans="1:20" ht="44.1" thickBot="1">
       <c r="A46" s="40"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -2874,14 +2996,14 @@
         <v>11</v>
       </c>
       <c r="I46" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J46" s="50"/>
       <c r="K46" s="54" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="L46" s="52" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="M46" s="40"/>
       <c r="N46" s="41"/>
@@ -2892,7 +3014,7 @@
       <c r="S46" s="41"/>
       <c r="T46" s="42"/>
     </row>
-    <row r="47" spans="1:20" ht="58">
+    <row r="47" spans="1:20" ht="57.95">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -2903,30 +3025,30 @@
         <v>1</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="41">
         <v>12</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="K47" s="50"/>
       <c r="L47" s="53" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M47" s="43" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18">
@@ -2939,10 +3061,10 @@
         <v>1.8</v>
       </c>
       <c r="R47" s="63" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="T47" s="42"/>
     </row>
@@ -2957,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F48" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="41"/>
@@ -2991,15 +3113,15 @@
         <v>1</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="68"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
       <c r="J49" s="50"/>
@@ -3015,23 +3137,25 @@
       <c r="T49" s="42"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="70">
-        <v>1</v>
-      </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72">
-        <v>1</v>
-      </c>
-      <c r="D50" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="74">
+      <c r="A50" s="69">
+        <v>1</v>
+      </c>
+      <c r="B50" s="98">
+        <v>3</v>
+      </c>
+      <c r="C50" s="70">
+        <v>1</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="72">
         <v>23355</v>
       </c>
       <c r="H50" s="41"/>
@@ -3049,15 +3173,23 @@
       <c r="T50" s="42"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="93" t="s">
-        <v>87</v>
+      <c r="A51" s="32">
+        <v>2</v>
+      </c>
+      <c r="B51" s="100">
+        <v>3</v>
+      </c>
+      <c r="C51" s="33">
+        <v>1</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="G51" s="37">
         <v>17132</v>
@@ -3213,30 +3345,30 @@
         <v>1</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F58" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="41">
         <v>13</v>
       </c>
       <c r="I58" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J58" s="50" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K58" s="50"/>
       <c r="L58" s="52" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M58" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N58" s="41">
         <v>5</v>
@@ -3245,10 +3377,10 @@
       <c r="P58" s="41"/>
       <c r="Q58" s="41"/>
       <c r="R58" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T58" s="64">
         <v>1</v>
@@ -3265,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F59" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="41"/>
@@ -3299,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="88" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="F60" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="41"/>
@@ -3323,17 +3455,25 @@
       <c r="T60" s="42"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="A61" s="32">
+        <v>7</v>
+      </c>
+      <c r="B61" s="33">
+        <v>2</v>
+      </c>
+      <c r="C61" s="33">
+        <v>1</v>
+      </c>
+      <c r="D61" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E61" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="F61" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="68"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
       <c r="J61" s="50"/>
@@ -3349,17 +3489,25 @@
       <c r="T61" s="42"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="75"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77" t="s">
+      <c r="A62" s="73">
+        <v>1</v>
+      </c>
+      <c r="B62" s="74">
+        <v>3</v>
+      </c>
+      <c r="C62" s="74">
+        <v>1</v>
+      </c>
+      <c r="D62" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="78">
+      <c r="G62" s="76">
         <v>21131</v>
       </c>
       <c r="H62" s="41"/>
@@ -3397,7 +3545,7 @@
       <c r="S63" s="41"/>
       <c r="T63" s="42"/>
     </row>
-    <row r="64" spans="1:20" ht="44" thickBot="1">
+    <row r="64" spans="1:20" ht="44.1" thickBot="1">
       <c r="A64" s="40"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3408,14 +3556,14 @@
         <v>14</v>
       </c>
       <c r="I64" s="41" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K64" s="50"/>
       <c r="L64" s="52" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M64" s="40"/>
       <c r="N64" s="41"/>
@@ -3437,30 +3585,30 @@
         <v>1</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F65" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="41">
         <v>14</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J65" s="50" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K65" s="50"/>
       <c r="L65" s="53" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M65" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N65" s="41">
         <v>6</v>
@@ -3469,10 +3617,10 @@
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T65" s="64">
         <v>1</v>
@@ -3489,13 +3637,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F66" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="41"/>
@@ -3523,13 +3671,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="88" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="F67" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="41"/>
@@ -3547,17 +3695,25 @@
       <c r="T67" s="42"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="32">
+        <v>7</v>
+      </c>
+      <c r="B68" s="33">
+        <v>2</v>
+      </c>
+      <c r="C68" s="33">
+        <v>1</v>
+      </c>
+      <c r="D68" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E68" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="F68" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="68"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
       <c r="J68" s="50"/>
@@ -3573,17 +3729,25 @@
       <c r="T68" s="42"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="79"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="81" t="s">
+      <c r="A69" s="77">
+        <v>1</v>
+      </c>
+      <c r="B69" s="78">
+        <v>3</v>
+      </c>
+      <c r="C69" s="78">
+        <v>1</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="82">
+      <c r="G69" s="80">
         <v>21131</v>
       </c>
       <c r="H69" s="41"/>
@@ -3601,15 +3765,23 @@
       <c r="T69" s="42"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="A70" s="32">
+        <v>2</v>
+      </c>
+      <c r="B70" s="33">
+        <v>3</v>
+      </c>
+      <c r="C70" s="33">
+        <v>4</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E70" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="93" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="F70" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="G70" s="37">
         <v>15131</v>
@@ -3628,7 +3800,7 @@
       <c r="S70" s="41"/>
       <c r="T70" s="42"/>
     </row>
-    <row r="71" spans="1:20" ht="29">
+    <row r="71" spans="1:20" ht="29.1">
       <c r="A71" s="40"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3639,14 +3811,14 @@
         <v>15</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J71" s="50" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K71" s="50"/>
       <c r="L71" s="52" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="41"/>
@@ -3668,14 +3840,14 @@
         <v>16</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J72" s="50" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="K72" s="50"/>
       <c r="L72" s="52" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="M72" s="40"/>
       <c r="N72" s="41"/>
@@ -3686,7 +3858,7 @@
       <c r="S72" s="41"/>
       <c r="T72" s="42"/>
     </row>
-    <row r="73" spans="1:20" ht="44" thickBot="1">
+    <row r="73" spans="1:20" ht="44.1" thickBot="1">
       <c r="A73" s="40"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -3697,14 +3869,14 @@
         <v>17</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="K73" s="50"/>
       <c r="L73" s="52" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="41"/>
@@ -3726,30 +3898,30 @@
         <v>1</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F74" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="41">
         <v>18</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J74" s="50" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K74" s="50"/>
       <c r="L74" s="53" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M74" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N74" s="41">
         <v>6</v>
@@ -3758,10 +3930,10 @@
       <c r="P74" s="41"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S74" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T74" s="64">
         <v>1</v>
@@ -3778,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F75" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="41"/>
@@ -3812,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76" s="88" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="F76" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="41"/>
@@ -3836,17 +4008,25 @@
       <c r="T76" s="42"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="A77" s="32">
+        <v>7</v>
+      </c>
+      <c r="B77" s="111">
+        <v>2</v>
+      </c>
+      <c r="C77" s="33">
+        <v>1</v>
+      </c>
+      <c r="D77" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E77" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="F77" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="68"/>
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="50"/>
@@ -3862,17 +4042,25 @@
       <c r="T77" s="42"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="81" t="s">
+      <c r="A78" s="77">
+        <v>1</v>
+      </c>
+      <c r="B78" s="78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="82">
+      <c r="G78" s="80">
         <v>21131</v>
       </c>
       <c r="H78" s="41"/>
@@ -3890,15 +4078,23 @@
       <c r="T78" s="42"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1">
-      <c r="A79" s="32"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="32">
+        <v>2</v>
+      </c>
+      <c r="B79" s="33">
+        <v>3</v>
+      </c>
+      <c r="C79" s="33">
+        <v>4</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E79" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="93" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="F79" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="G79" s="37">
         <v>15131</v>
@@ -3917,7 +4113,7 @@
       <c r="S79" s="41"/>
       <c r="T79" s="42"/>
     </row>
-    <row r="80" spans="1:20" ht="29">
+    <row r="80" spans="1:20" ht="29.1">
       <c r="A80" s="40"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -3928,14 +4124,14 @@
         <v>19</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J80" s="50" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="K80" s="50"/>
       <c r="L80" s="52" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="41"/>
@@ -3946,7 +4142,7 @@
       <c r="S80" s="41"/>
       <c r="T80" s="42"/>
     </row>
-    <row r="81" spans="1:20" ht="29">
+    <row r="81" spans="1:20" ht="29.1">
       <c r="A81" s="40"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -3957,14 +4153,14 @@
         <v>19</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="J81" s="50" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="K81" s="50"/>
       <c r="L81" s="52" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M81" s="40"/>
       <c r="N81" s="41"/>
@@ -3986,14 +4182,14 @@
         <v>20</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J82" s="50" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K82" s="50"/>
       <c r="L82" s="52" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="41"/>
@@ -4015,14 +4211,14 @@
         <v>20</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="J83" s="50" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="K83" s="50"/>
       <c r="L83" s="52" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="M83" s="40"/>
       <c r="N83" s="41"/>
@@ -4033,7 +4229,7 @@
       <c r="S83" s="41"/>
       <c r="T83" s="42"/>
     </row>
-    <row r="84" spans="1:20" ht="44" thickBot="1">
+    <row r="84" spans="1:20" ht="44.1" thickBot="1">
       <c r="A84" s="40"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -4044,14 +4240,14 @@
         <v>20</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="J84" s="50" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="K84" s="50"/>
       <c r="L84" s="52" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M84" s="40"/>
       <c r="N84" s="41"/>
@@ -4073,30 +4269,30 @@
         <v>1</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" s="85" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="F85" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="41">
         <v>20</v>
       </c>
       <c r="I85" s="41" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="J85" s="50" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="K85" s="50"/>
       <c r="L85" s="53" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="M85" s="43" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N85" s="41">
         <v>1</v>
@@ -4105,10 +4301,10 @@
       <c r="P85" s="41"/>
       <c r="Q85" s="41"/>
       <c r="R85" s="63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="S85" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="T85" s="64">
         <v>1</v>
@@ -4125,13 +4321,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="88" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="F86" s="86" t="s">
+        <v>31</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="41"/>
@@ -4159,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87" s="88" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="F87" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="41"/>
@@ -4183,15 +4379,23 @@
       <c r="T87" s="42"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="35"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="A88" s="35">
+        <v>7</v>
+      </c>
+      <c r="B88" s="112">
+        <v>2</v>
+      </c>
+      <c r="C88" s="31">
+        <v>1</v>
+      </c>
+      <c r="D88" s="94" t="s">
+        <v>29</v>
+      </c>
       <c r="E88" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F88" s="88" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="F88" s="86" t="s">
+        <v>93</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="41"/>
@@ -4209,15 +4413,23 @@
       <c r="T88" s="42"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1">
-      <c r="A89" s="32"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="A89" s="32">
+        <v>8</v>
+      </c>
+      <c r="B89" s="111">
+        <v>2</v>
+      </c>
+      <c r="C89" s="33">
+        <v>1</v>
+      </c>
+      <c r="D89" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="E89" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="93" t="s">
-        <v>101</v>
+        <v>120</v>
+      </c>
+      <c r="F89" s="91" t="s">
+        <v>121</v>
       </c>
       <c r="G89" s="37">
         <v>12140</v>
@@ -4299,7 +4511,7 @@
       <c r="S92" s="41"/>
       <c r="T92" s="42"/>
     </row>
-    <row r="93" spans="1:20" ht="44" thickBot="1">
+    <row r="93" spans="1:20" ht="44.1" thickBot="1">
       <c r="A93" s="44"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -4312,11 +4524,11 @@
       </c>
       <c r="I93" s="45"/>
       <c r="J93" s="55" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="K93" s="55"/>
       <c r="L93" s="56" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="M93" s="44"/>
       <c r="N93" s="45"/>
